--- a/RNA.xlsx
+++ b/RNA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1275FAE6-2E4E-4248-8ACC-D3585CDC492D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{142E2F5F-604A-4D82-B109-79B019817E43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-35970" yWindow="0" windowWidth="35025" windowHeight="20160" xr2:uid="{EAC68AAC-EB48-4B57-AD00-1CC1AB66C75B}"/>
+    <workbookView xWindow="45480" yWindow="4800" windowWidth="22680" windowHeight="14550" xr2:uid="{EAC68AAC-EB48-4B57-AD00-1CC1AB66C75B}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -204,7 +204,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -212,7 +212,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -558,48 +557,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A1AD74A-5E44-4C51-BBF5-822647930CBB}">
   <dimension ref="B2:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.7265625" customWidth="1"/>
+    <col min="2" max="2" width="18.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B2" s="10" t="s">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="12"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="11"/>
       <c r="K2" t="s">
         <v>0</v>
       </c>
       <c r="L2" s="1">
-        <v>44.7</v>
-      </c>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+        <v>30.94</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="6"/>
+      <c r="H3" s="5"/>
       <c r="K3" t="s">
         <v>1</v>
       </c>
@@ -611,38 +606,30 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="6"/>
+      <c r="H4" s="5"/>
       <c r="K4" t="s">
         <v>2</v>
       </c>
       <c r="L4" s="2">
         <f>+L2*L3</f>
-        <v>5235.3264459000002</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
+        <v>3623.7360231800003</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="6"/>
+      <c r="H5" s="5"/>
       <c r="K5" t="s">
         <v>3</v>
       </c>
@@ -654,14 +641,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="6"/>
+      <c r="H6" s="5"/>
       <c r="K6" t="s">
         <v>4</v>
       </c>
@@ -672,32 +654,27 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="6"/>
+      <c r="H7" s="5"/>
       <c r="K7" t="s">
         <v>5</v>
       </c>
       <c r="L7" s="2">
         <f>+L4-L5+L6</f>
-        <v>3645.2804459000004</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="9"/>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
+        <v>2033.6900231800005</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="6"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="8"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="K10" t="s">
         <v>12</v>
       </c>
